--- a/django_app/pls/temp/ChatGPT.xlsx
+++ b/django_app/pls/temp/ChatGPT.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,17 +544,17 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>PRAの高度化の活動 ―リスク情報の活用に着目したPRAの改善―</t>
+          <t>編集後記</t>
         </is>
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>https://www.jstage.jst.go.jp/article/jaesjb/65/6/65_383/_article/-char/ja</t>
+          <t>https://www.jstage.jst.go.jp/article/butsuri/78/6/78_349/_article/-char/ja</t>
         </is>
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">日本原子力学会誌ATOMOΣ </t>
+          <t xml:space="preserve">日本物理学会誌 </t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -564,69 +564,22 @@
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>65 巻, 6 号, 383-387</t>
+          <t>78 巻, 6 号, 349-350</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
-          <t>発行日: 2023年</t>
+          <t>発行日: 2023/07/05</t>
         </is>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>公開日: 2023/06/10</t>
+          <t>公開日: 2023/06/05</t>
         </is>
       </c>
       <c r="I2" s="8" t="inlineStr">
         <is>
-          <t>確率論的リスク評価(PRA)は，原子力発電所の設置許可，安全性向上届出において実施されるとともに，原子力発電所の日々の業務における安全性の向上に役立つリスク情報の提供などに活用されている。原子力事業者のリスク情報のプラント業務への適用にあたっては，PRAの品質が重要な要素となる。電力中央研究所原子力リスク研究センター(NRRC)では，加圧水型軽水炉(PWR)および沸騰水型軽水炉(BWR)の代表プラント(パイロットプラント)を設定し，パイロットプラントで構築したPRAモデルについて海外専門家によるレビューを行うことなどにより，わが国のPRAが国際的慣行(State-of-practice)PRAと同レベルの技術的品質が確保できるように，PRAの高度化を支援している。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="100" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>体験することの大切さ</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/ieiej/43/6/43_321/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">電気設備学会誌 </t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>2023年</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>43 巻, 6 号, 321</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>発行日: 2023年</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>公開日: 2023/06/10</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>要約なし</t>
+          <t>編集後記</t>
         </is>
       </c>
     </row>
@@ -634,7 +587,6 @@
   <autoFilter ref="A1:I1"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
